--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2372562.220102429</v>
+        <v>-2375176.49871888</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.2146126744141</v>
+        <v>104.248896080159</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>52.86845664851262</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>115.8619247783173</v>
+        <v>115.8619247783174</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>205.2000830738755</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.0186029205788</v>
       </c>
       <c r="V2" t="n">
-        <v>104.2459956392789</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>135.1561775373476</v>
       </c>
       <c r="H3" t="n">
-        <v>91.11034837618719</v>
+        <v>91.1103483761872</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674306</v>
+        <v>14.08691327674308</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,7 +826,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>100.3033462869334</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.83943180792917</v>
+        <v>94.83943180792919</v>
       </c>
       <c r="S4" t="n">
         <v>192.0586035981866</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.1102960603998</v>
       </c>
       <c r="U4" t="n">
         <v>286.2190043347733</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>195.0895680731931</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>53.45684522402995</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>108.5748211465611</v>
+        <v>75.02841462833948</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -911,10 +911,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>168.8885499332614</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>216.8079923071222</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>255.4384179530384</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>35.91752934229426</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>12.36155726322631</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.7671037116294</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>61.44013021076761</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,19 +1576,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>256.0341711178237</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>137.7610225486946</v>
       </c>
       <c r="E16" t="n">
-        <v>71.39698738222801</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>123.9815576456784</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>99.97427419833791</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>34.67929910923727</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>194.9706438327688</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>103.8784673763407</v>
+        <v>83.06560892428085</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,13 +2552,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,25 +2713,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308911</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2776,7 +2776,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
         <v>194.3000058600551</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3013,7 +3013,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
         <v>194.3000058600551</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.962173606588</v>
       </c>
       <c r="D34" t="n">
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308914</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.239490800229</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652574</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808189</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972043</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1629.777807337106</v>
+        <v>887.6499972172514</v>
       </c>
       <c r="C2" t="n">
-        <v>1629.777807337106</v>
+        <v>518.6874802768398</v>
       </c>
       <c r="D2" t="n">
-        <v>1271.512108730356</v>
+        <v>518.6874802768398</v>
       </c>
       <c r="E2" t="n">
-        <v>885.7238561321121</v>
+        <v>518.6874802768398</v>
       </c>
       <c r="F2" t="n">
-        <v>474.7379513425046</v>
+        <v>518.6874802768398</v>
       </c>
       <c r="G2" t="n">
-        <v>59.36965571178318</v>
+        <v>413.3855650443555</v>
       </c>
       <c r="H2" t="n">
-        <v>59.36965571178318</v>
+        <v>112.7721371749272</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178318</v>
+        <v>59.36965571178316</v>
       </c>
       <c r="J2" t="n">
         <v>223.6389510734998</v>
       </c>
       <c r="K2" t="n">
-        <v>520.574560644744</v>
+        <v>520.5745606447445</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185038</v>
+        <v>925.8512030185034</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552359</v>
+        <v>1408.468993552358</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.50985287725</v>
+        <v>1903.509852877249</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384227</v>
+        <v>2357.627637384226</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215712</v>
+        <v>2710.705659215711</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719474</v>
+        <v>2927.679802719473</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.482785589159</v>
+        <v>2968.482785589158</v>
       </c>
       <c r="S2" t="n">
         <v>2851.450538338333</v>
       </c>
       <c r="T2" t="n">
-        <v>2851.450538338333</v>
+        <v>2644.1777271526</v>
       </c>
       <c r="U2" t="n">
-        <v>2851.450538338333</v>
+        <v>2390.623582788379</v>
       </c>
       <c r="V2" t="n">
-        <v>2746.151552844112</v>
+        <v>2390.623582788379</v>
       </c>
       <c r="W2" t="n">
-        <v>2393.382897573998</v>
+        <v>2037.854927518265</v>
       </c>
       <c r="X2" t="n">
-        <v>2019.917139312918</v>
+        <v>1664.389169257185</v>
       </c>
       <c r="Y2" t="n">
-        <v>1629.777807337106</v>
+        <v>1274.249837281373</v>
       </c>
     </row>
     <row r="3">
@@ -4401,34 +4401,34 @@
         <v>165.6295159672683</v>
       </c>
       <c r="H3" t="n">
-        <v>73.59886104182668</v>
+        <v>73.59886104182667</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178318</v>
+        <v>59.36965571178316</v>
       </c>
       <c r="J3" t="n">
         <v>138.3894757148952</v>
       </c>
       <c r="K3" t="n">
-        <v>351.6017589168903</v>
+        <v>351.6017589168902</v>
       </c>
       <c r="L3" t="n">
-        <v>684.6145268671329</v>
+        <v>684.6145268671327</v>
       </c>
       <c r="M3" t="n">
-        <v>1332.329405070861</v>
+        <v>1092.581588039814</v>
       </c>
       <c r="N3" t="n">
-        <v>1765.502785324652</v>
+        <v>1525.754968293606</v>
       </c>
       <c r="O3" t="n">
-        <v>2139.552005769182</v>
+        <v>1899.804188738135</v>
       </c>
       <c r="P3" t="n">
-        <v>2420.426415694429</v>
+        <v>2180.678598663381</v>
       </c>
       <c r="Q3" t="n">
-        <v>2558.264324026496</v>
+        <v>2526.493021853939</v>
       </c>
       <c r="R3" t="n">
         <v>2558.264324026496</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>605.6058476053652</v>
+        <v>526.3355716344189</v>
       </c>
       <c r="C4" t="n">
-        <v>605.6058476053652</v>
+        <v>357.399388706512</v>
       </c>
       <c r="D4" t="n">
-        <v>455.4892081930294</v>
+        <v>207.2827492941763</v>
       </c>
       <c r="E4" t="n">
-        <v>307.5761146106363</v>
+        <v>59.36965571178316</v>
       </c>
       <c r="F4" t="n">
-        <v>160.686167112726</v>
+        <v>59.36965571178316</v>
       </c>
       <c r="G4" t="n">
-        <v>160.686167112726</v>
+        <v>59.36965571178316</v>
       </c>
       <c r="H4" t="n">
-        <v>160.686167112726</v>
+        <v>59.36965571178316</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178318</v>
+        <v>59.36965571178316</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538946001</v>
+        <v>95.29667538945989</v>
       </c>
       <c r="K4" t="n">
         <v>284.1726417778209</v>
@@ -4495,10 +4495,10 @@
         <v>581.3952856386278</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945959</v>
+        <v>905.1640129945956</v>
       </c>
       <c r="N4" t="n">
-        <v>1226.66886009458</v>
+        <v>1226.668860094579</v>
       </c>
       <c r="O4" t="n">
         <v>1507.614327944344</v>
@@ -4510,28 +4510,28 @@
         <v>1791.210133852897</v>
       </c>
       <c r="R4" t="n">
-        <v>1695.412727986302</v>
+        <v>1695.412727986301</v>
       </c>
       <c r="S4" t="n">
-        <v>1501.414138493185</v>
+        <v>1501.414138493184</v>
       </c>
       <c r="T4" t="n">
-        <v>1501.414138493185</v>
+        <v>1279.080506108941</v>
       </c>
       <c r="U4" t="n">
-        <v>1212.304033104524</v>
+        <v>989.970400720282</v>
       </c>
       <c r="V4" t="n">
-        <v>1212.304033104524</v>
+        <v>989.970400720282</v>
       </c>
       <c r="W4" t="n">
-        <v>1015.243863333622</v>
+        <v>989.970400720282</v>
       </c>
       <c r="X4" t="n">
-        <v>787.2543124356049</v>
+        <v>761.9808498222646</v>
       </c>
       <c r="Y4" t="n">
-        <v>787.2543124356049</v>
+        <v>707.9840364646586</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1681.836054204827</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,19 +4574,19 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>1681.836054204827</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>456.9449278938906</v>
+        <v>846.3749096777597</v>
       </c>
       <c r="C7" t="n">
-        <v>456.9449278938906</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1666.869595963939</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1445.102980533465</v>
+        <v>1618.466118818625</v>
       </c>
       <c r="U7" t="n">
-        <v>1156.000113659108</v>
+        <v>1618.466118818625</v>
       </c>
       <c r="V7" t="n">
-        <v>1156.000113659108</v>
+        <v>1363.781630612738</v>
       </c>
       <c r="W7" t="n">
-        <v>866.5829436221477</v>
+        <v>1074.364460575777</v>
       </c>
       <c r="X7" t="n">
-        <v>638.5933927241304</v>
+        <v>846.3749096777597</v>
       </c>
       <c r="Y7" t="n">
-        <v>638.5933927241304</v>
+        <v>846.3749096777597</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.400891308157</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.438374367746</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.172675760995</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4835,19 +4835,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X8" t="n">
-        <v>2952.140063348091</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.000731372279</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>773.7942044041906</v>
+        <v>712.6441443736238</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>543.7079614457169</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>393.5913220333812</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1915.408584743413</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1915.408584743413</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1693.641969312938</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1693.641969312938</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>1693.641969312938</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W10" t="n">
-        <v>1404.224799275978</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X10" t="n">
-        <v>1176.23524837796</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y10" t="n">
-        <v>955.4426692344304</v>
+        <v>712.6441443736238</v>
       </c>
     </row>
     <row r="11">
@@ -5030,22 +5030,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5130,16 +5130,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424045</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>464.5051450557705</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782947</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038332</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797733</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855603</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.695539989114</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1022.872235754091</v>
+        <v>696.7084350851667</v>
       </c>
       <c r="C16" t="n">
-        <v>853.9360528261839</v>
+        <v>527.7722521572598</v>
       </c>
       <c r="D16" t="n">
-        <v>703.8194134138481</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1653.302830625878</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1425.31327972786</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>1204.52070058433</v>
+        <v>878.3568999154064</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
         <v>1859.536823237711</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,13 +5671,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,7 +5695,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>228.9331431646413</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>562.8579153358619</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,13 +5884,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E22" t="n">
         <v>631.7012443408906</v>
@@ -5905,16 +5905,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,7 +5923,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2344.887784772827</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993915</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956954</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.19898568143</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>913.2907898186995</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9405071576785</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="F25" t="n">
-        <v>365.9405071576785</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="G25" t="n">
-        <v>198.7444078725584</v>
+        <v>177.7213185270435</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703102</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656811</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345477</v>
@@ -6379,10 +6379,10 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
         <v>483.8255460380728</v>
@@ -6391,43 +6391,43 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N28" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,13 +6537,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6555,10 +6555,10 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319321</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C31" t="n">
         <v>782.5512955656814</v>
@@ -6610,10 +6610,10 @@
         <v>411.2214559580109</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6652,19 +6652,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6877,7 +6877,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6886,22 +6886,22 @@
         <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6917,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>3951.890584782709</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4503.800315021996</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7111,7 +7111,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7126,16 +7126,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192741</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111729</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656823</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384017</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,19 +7345,19 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7397,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319333</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656827</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150032</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942664</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580123</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345486</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N43" t="n">
         <v>1785.769117656414</v>
@@ -7597,22 +7597,22 @@
         <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532433</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>139.2347658407936</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565524</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683104</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -8064,7 +8064,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>242.1695121525722</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>9.872575263447089</v>
+        <v>41.9647996801711</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>306.9657165942551</v>
       </c>
       <c r="H2" t="n">
-        <v>297.6072935907341</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851259</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>205.2000830738755</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0186029205788</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>223.506262830856</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.1571872936354</v>
@@ -22723,7 +22723,7 @@
         <v>145.9230939674644</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>100.3033462869334</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.1102960603998</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>91.43343026339792</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>165.1278081280648</v>
       </c>
     </row>
     <row r="5">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>87.17534280744475</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,19 +23464,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>30.15030327142044</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>10.85445046951773</v>
       </c>
       <c r="E16" t="n">
-        <v>75.03697526434117</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>43.26526345294948</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393094</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>146.3469868924076</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>30.73901155626831</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>36.41624546988317</v>
+        <v>57.22910392194304</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1117876.449403259</v>
+        <v>1117876.449403258</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32460.91116143664</v>
+        <v>32460.91116143662</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="E2" t="n">
+        <v>40357.32998450029</v>
+      </c>
+      <c r="F2" t="n">
+        <v>40357.3299845003</v>
+      </c>
+      <c r="G2" t="n">
+        <v>40357.32998450028</v>
+      </c>
+      <c r="H2" t="n">
+        <v>40357.32998450029</v>
+      </c>
+      <c r="I2" t="n">
+        <v>40357.32998450029</v>
+      </c>
+      <c r="J2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="K2" t="n">
+        <v>41052.0884932142</v>
+      </c>
+      <c r="L2" t="n">
         <v>41052.08849321418</v>
       </c>
-      <c r="E2" t="n">
-        <v>40357.3299845003</v>
-      </c>
-      <c r="F2" t="n">
-        <v>40357.32998450031</v>
-      </c>
-      <c r="G2" t="n">
-        <v>40357.32998450032</v>
-      </c>
-      <c r="H2" t="n">
-        <v>40357.32998450032</v>
-      </c>
-      <c r="I2" t="n">
-        <v>40357.3299845003</v>
-      </c>
-      <c r="J2" t="n">
-        <v>41052.08849321418</v>
-      </c>
-      <c r="K2" t="n">
-        <v>41052.08849321421</v>
-      </c>
-      <c r="L2" t="n">
-        <v>41052.08849321417</v>
-      </c>
       <c r="M2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="N2" t="n">
         <v>41052.08849321419</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41052.08849321421</v>
       </c>
       <c r="O2" t="n">
         <v>41052.08849321419</v>
       </c>
       <c r="P2" t="n">
-        <v>41052.0884932142</v>
+        <v>41052.08849321419</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>1228620.061871474</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.4934397304</v>
+        <v>95186.49343973077</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.1454818043</v>
+        <v>213599.1454818042</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359953</v>
+        <v>22978.0103835997</v>
       </c>
       <c r="L3" t="n">
-        <v>3.979039320256561e-11</v>
+        <v>7.105427357601002e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551177</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363172</v>
+        <v>19427.7179936318</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14779.83765767044</v>
+        <v>14779.83765767046</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678119</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26439,19 +26439,19 @@
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
+        <v>18547.94754987467</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18547.94754987467</v>
+      </c>
+      <c r="L4" t="n">
+        <v>18547.9475498747</v>
+      </c>
+      <c r="M4" t="n">
+        <v>18547.94754987469</v>
+      </c>
+      <c r="N4" t="n">
         <v>18547.94754987465</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18547.94754987465</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18547.94754987468</v>
-      </c>
-      <c r="M4" t="n">
-        <v>18547.94754987468</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18547.94754987468</v>
       </c>
       <c r="O4" t="n">
         <v>18547.94754987467</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1311856.405688683</v>
+        <v>-1312285.964555271</v>
       </c>
       <c r="C6" t="n">
-        <v>-251812.468566042</v>
+        <v>-251812.4685660424</v>
       </c>
       <c r="D6" t="n">
         <v>-156625.9751263116</v>
       </c>
       <c r="E6" t="n">
-        <v>-396734.7499335432</v>
+        <v>-396769.4878589789</v>
       </c>
       <c r="F6" t="n">
-        <v>-71322.28812618801</v>
+        <v>-71357.02605162372</v>
       </c>
       <c r="G6" t="n">
-        <v>-71322.288126188</v>
+        <v>-71357.02605162373</v>
       </c>
       <c r="H6" t="n">
-        <v>-71322.28812618801</v>
+        <v>-71357.02605162372</v>
       </c>
       <c r="I6" t="n">
-        <v>-71322.28812618802</v>
+        <v>-71357.02605162372</v>
       </c>
       <c r="J6" t="n">
-        <v>-294259.1203923802</v>
+        <v>-294259.12039238</v>
       </c>
       <c r="K6" t="n">
-        <v>-103637.9852941754</v>
+        <v>-103637.9852941756</v>
       </c>
       <c r="L6" t="n">
-        <v>-80659.97491057595</v>
+        <v>-80659.97491057598</v>
       </c>
       <c r="M6" t="n">
-        <v>-165715.0028460876</v>
+        <v>-165715.0028460877</v>
       </c>
       <c r="N6" t="n">
         <v>-80659.97491057587</v>
       </c>
       <c r="O6" t="n">
-        <v>-100087.6929042076</v>
+        <v>-100087.6929042077</v>
       </c>
       <c r="P6" t="n">
-        <v>-80659.97491057587</v>
+        <v>-80659.9749105759</v>
       </c>
     </row>
   </sheetData>
@@ -26707,19 +26707,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.2846474920398</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203967</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.28464749203967</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203972</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972897</v>
+        <v>742.1206963972895</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,28 +26805,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="O4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.973799150320701e-14</v>
+        <v>8.881784197001252e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203965</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396938</v>
+        <v>72.85564646396961</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972897</v>
+        <v>742.1206963972895</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500289</v>
+        <v>89.28075900500335</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.12069639729</v>
+        <v>742.1206963972895</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500266</v>
+        <v>89.28075900500335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972897</v>
+        <v>742.1206963972895</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500289</v>
+        <v>89.28075900500335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>256.6980706244464</v>
+        <v>290.2444771426681</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>20.88047539818049</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2.740956969047033</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>126.4919521192234</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>313.3234393751188</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>134.0724053833429</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>77.16504895841794</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203967</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920398</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -31048,34 +31048,34 @@
         <v>157.6074329218933</v>
       </c>
       <c r="J2" t="n">
-        <v>346.9744857001373</v>
+        <v>346.9744857001372</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078538</v>
+        <v>520.0248102078536</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020666</v>
+        <v>645.1367608020665</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382373</v>
+        <v>717.8389509382371</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419357</v>
+        <v>729.4543356419355</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570169</v>
+        <v>688.8030442570168</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517193</v>
+        <v>587.8774622517191</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934013</v>
+        <v>441.4714913934012</v>
       </c>
       <c r="R2" t="n">
-        <v>256.8006720259356</v>
+        <v>256.8006720259355</v>
       </c>
       <c r="S2" t="n">
-        <v>93.158144807928</v>
+        <v>93.15814480792797</v>
       </c>
       <c r="T2" t="n">
         <v>17.89576649025582</v>
@@ -31124,43 +31124,43 @@
         <v>21.12509586030927</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467202</v>
+        <v>75.309719574672</v>
       </c>
       <c r="J3" t="n">
-        <v>206.6556266698102</v>
+        <v>206.6556266698101</v>
       </c>
       <c r="K3" t="n">
-        <v>353.2073816026369</v>
+        <v>353.2073816026368</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629475</v>
+        <v>474.9309130629474</v>
       </c>
       <c r="M3" t="n">
-        <v>554.2219745004842</v>
+        <v>554.2219745004841</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265574</v>
+        <v>568.8905810265572</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429594</v>
+        <v>520.4237398429593</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913465</v>
+        <v>417.6859325913464</v>
       </c>
       <c r="Q3" t="n">
-        <v>279.2119845224528</v>
+        <v>279.2119845224527</v>
       </c>
       <c r="R3" t="n">
-        <v>135.8069287005169</v>
+        <v>135.8069287005168</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092175</v>
+        <v>40.62887419092174</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404273</v>
+        <v>8.816513667404271</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1439039227541504</v>
+        <v>0.1439039227541503</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.83379206482338</v>
+        <v>1.833792064823379</v>
       </c>
       <c r="H4" t="n">
         <v>16.30407853997515</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032493</v>
+        <v>55.14712864032492</v>
       </c>
       <c r="J4" t="n">
         <v>129.6490989830129</v>
@@ -31227,16 +31227,16 @@
         <v>221.7888148219112</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.5550791735287</v>
+        <v>153.5550791735286</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924031</v>
+        <v>82.4539595692403</v>
       </c>
       <c r="S4" t="n">
-        <v>31.95799443878562</v>
+        <v>31.95799443878561</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881712</v>
+        <v>7.83529336788171</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,16 +32318,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N18" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>261.5336801130326</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>477.8500485393211</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>614.7544723218302</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>154.5219885631796</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>271.1474903386687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>328.903832042181</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067246</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>681.5735157229393</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>270.948695672725</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9330708814848</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.928581173451</v>
+        <v>165.9285811734509</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628732</v>
+        <v>299.9349591628731</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320794</v>
+        <v>409.3703458320793</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109646</v>
+        <v>487.4927177109644</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453448</v>
+        <v>500.0412720453446</v>
       </c>
       <c r="O2" t="n">
-        <v>458.7048328353302</v>
+        <v>458.7048328353301</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964498</v>
+        <v>356.6444664964495</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189518</v>
+        <v>219.1658015189517</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180344</v>
+        <v>41.21513421180339</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.81800000314348</v>
+        <v>79.81800000314342</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282779</v>
+        <v>215.3659426282778</v>
       </c>
       <c r="L3" t="n">
-        <v>336.3765332830733</v>
+        <v>336.3765332830732</v>
       </c>
       <c r="M3" t="n">
-        <v>654.257452731038</v>
+        <v>412.0879405784657</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432241</v>
+        <v>437.548868943224</v>
       </c>
       <c r="O3" t="n">
-        <v>377.827495398515</v>
+        <v>377.8274953985149</v>
       </c>
       <c r="P3" t="n">
-        <v>283.7115251770163</v>
+        <v>283.7115251770161</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.2302104364313</v>
+        <v>349.3074981722803</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>32.09222441672396</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634017</v>
+        <v>36.28991886634014</v>
       </c>
       <c r="K4" t="n">
-        <v>190.783804432688</v>
+        <v>190.7838044326879</v>
       </c>
       <c r="L4" t="n">
-        <v>300.224892788694</v>
+        <v>300.2248927886939</v>
       </c>
       <c r="M4" t="n">
         <v>327.0391185413818</v>
@@ -34875,7 +34875,7 @@
         <v>219.0673740868047</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183428</v>
+        <v>67.39303592183425</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295234</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,16 +35966,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N18" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>134.6960534463659</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>339.2956687594469</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>476.2000925419561</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,22 +36914,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>128.5512458942243</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.3311307549932</v>
       </c>
       <c r="K34" t="n">
         <v>288.6172359016747</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.6869047919382</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318714</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>550.231803639606</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>128.8146617507067</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,19 +37938,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>44.09163190712582</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
